--- a/ApolloQA/Data/RatingManual/GA/VA00053.MotorCarrierFilingTypeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00053.MotorCarrierFilingTypeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.MotorCarrierFilingTypeFactors" sheetId="1" r:id="R683f7adcbb8c40b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.MotorCarrierFilingTypeFactors" sheetId="1" r:id="R50e0187c6966438c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -20,6 +20,14 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>Multi-State or Federal (ICC/FHWA)</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9580</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>None</x:v>
       </x:c>
       <x:c t="str">
@@ -31,15 +39,7 @@
         <x:v>Single State</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2500</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>Multi-State or Federal (ICC/FHWA)</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.4394</x:v>
+        <x:v>1.9580</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
